--- a/E_learning/score.xlsx
+++ b/E_learning/score.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,29 +25,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>구분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국어</t>
+  </si>
+  <si>
+    <t>경력</t>
+  </si>
+  <si>
+    <t>성적</t>
+  </si>
+  <si>
+    <t>매출</t>
   </si>
   <si>
     <t>현행</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>개정안</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한국어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>성적</t>
+  </si>
+  <si>
+    <t>중국어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일본어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스페인어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한본어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트수어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갸갹</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -377,28 +403,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="6.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.3984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>3</v>
       </c>
       <c r="B2">
         <v>30</v>
@@ -406,10 +441,13 @@
       <c r="C2">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D2">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>40</v>
@@ -417,10 +455,13 @@
       <c r="C3">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>20</v>
@@ -428,8 +469,123 @@
       <c r="C4">
         <v>10</v>
       </c>
+      <c r="D4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>34</v>
+      </c>
+      <c r="C5">
+        <v>345</v>
+      </c>
+      <c r="D5">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>673</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>89</v>
+      </c>
+      <c r="D7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>77</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>45</v>
+      </c>
+      <c r="D9">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>86</v>
+      </c>
+      <c r="C10">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>23</v>
+      </c>
+      <c r="D11">
+        <v>55</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
